--- a/Custo de reposição.xlsx
+++ b/Custo de reposição.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supor\Documents\src\simulador-sobel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C9FAF3F-EAC8-48E4-9741-78557B10BC29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1C6D80-63B7-4955-97B6-52DAAEFC20D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB133F6D-E864-4E6F-860C-EF749A2C5562}"/>
   </bookViews>
@@ -171,6 +171,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -225,7 +228,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -235,12 +238,25 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="12">
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.000"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
@@ -258,18 +274,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -314,17 +318,21 @@
     <tableColumn id="3" xr3:uid="{30E4D70B-ADF2-466B-B602-635A231CE43C}" name="Custo NET"/>
     <tableColumn id="4" xr3:uid="{15A813F2-5920-417B-BF32-F2EF44A61331}" name="Custo Fixo"/>
     <tableColumn id="5" xr3:uid="{35E666E8-E549-4075-87DB-B07BB23AEE27}" name="Preço de Venda"/>
-    <tableColumn id="6" xr3:uid="{21D9CE8A-DDC9-4C1E-8E36-E36EF7BB241C}" name="ICMS" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{32B2DD0B-CFCD-4A70-A33F-8CD811A432CA}" name="PIS" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{27154275-A3D1-460D-847E-4471936E7A24}" name="COFINS" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{C06D739E-340E-4A8B-93E0-75AE7694A33C}" name="Comissão" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{005CBC4D-D93B-4AB1-9E7E-583613ADA097}" name="IPI" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{9EE88528-3943-4DA4-8C24-0AF2638DA941}" name="Bonificação" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{D3594A20-D6CA-4EDB-80E5-24A3EE1DCDF7}" name="Contigência" dataDxfId="3"/>
-    <tableColumn id="13" xr3:uid="{AEF59067-D7C7-4B32-98D3-845B50796345}" name="Contrato" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{21D9CE8A-DDC9-4C1E-8E36-E36EF7BB241C}" name="ICMS" dataDxfId="2"/>
+    <tableColumn id="7" xr3:uid="{32B2DD0B-CFCD-4A70-A33F-8CD811A432CA}" name="PIS" dataDxfId="0">
+      <calculatedColumnFormula>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{27154275-A3D1-460D-847E-4471936E7A24}" name="COFINS" dataDxfId="1">
+      <calculatedColumnFormula>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="9" xr3:uid="{C06D739E-340E-4A8B-93E0-75AE7694A33C}" name="Comissão" dataDxfId="3"/>
+    <tableColumn id="10" xr3:uid="{005CBC4D-D93B-4AB1-9E7E-583613ADA097}" name="IPI" dataDxfId="9"/>
+    <tableColumn id="11" xr3:uid="{9EE88528-3943-4DA4-8C24-0AF2638DA941}" name="Bonificação" dataDxfId="8"/>
+    <tableColumn id="12" xr3:uid="{D3594A20-D6CA-4EDB-80E5-24A3EE1DCDF7}" name="Contigência" dataDxfId="7"/>
+    <tableColumn id="13" xr3:uid="{AEF59067-D7C7-4B32-98D3-845B50796345}" name="Contrato" dataDxfId="6"/>
     <tableColumn id="14" xr3:uid="{E07F0135-882D-4687-B21E-17713EE0A152}" name="Frete Caixa"/>
-    <tableColumn id="15" xr3:uid="{A34AEA56-11E8-4AAA-A787-A9C43F8F9D87}" name="MVA" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{AA8F6E27-D028-4B2B-BA6D-471502EFE8D8}" name="%Estrategico" dataDxfId="0"/>
+    <tableColumn id="15" xr3:uid="{A34AEA56-11E8-4AAA-A787-A9C43F8F9D87}" name="MVA" dataDxfId="5"/>
+    <tableColumn id="16" xr3:uid="{AA8F6E27-D028-4B2B-BA6D-471502EFE8D8}" name="%Estrategico" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -650,7 +658,7 @@
   <dimension ref="A1:Q127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2:P127"/>
+      <selection activeCell="H2" sqref="H2:H127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -661,7 +669,7 @@
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
-    <col min="7" max="7" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="9.7109375" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
@@ -739,11 +747,13 @@
       <c r="F2" s="3">
         <v>0.18</v>
       </c>
-      <c r="G2" s="4">
-        <v>1.35E-2</v>
+      <c r="G2" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H2" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I2" s="4">
         <v>2.8799999999999999E-2</v>
@@ -784,11 +794,13 @@
       <c r="F3" s="3">
         <v>0.18</v>
       </c>
-      <c r="G3" s="4">
-        <v>1.35E-2</v>
+      <c r="G3" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H3" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I3" s="4">
         <v>2.8799999999999999E-2</v>
@@ -828,11 +840,13 @@
       <c r="F4" s="3">
         <v>0.18</v>
       </c>
-      <c r="G4" s="4">
-        <v>1.35E-2</v>
+      <c r="G4" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H4" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I4" s="4">
         <v>2.8799999999999999E-2</v>
@@ -872,11 +886,13 @@
       <c r="F5" s="3">
         <v>0.18</v>
       </c>
-      <c r="G5" s="4">
-        <v>1.35E-2</v>
+      <c r="G5" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H5" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I5" s="4">
         <v>2.8799999999999999E-2</v>
@@ -916,11 +932,13 @@
       <c r="F6" s="3">
         <v>0.18</v>
       </c>
-      <c r="G6" s="4">
-        <v>1.35E-2</v>
+      <c r="G6" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H6" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I6" s="4">
         <v>2.8799999999999999E-2</v>
@@ -960,11 +978,13 @@
       <c r="F7" s="3">
         <v>0.18</v>
       </c>
-      <c r="G7" s="4">
-        <v>1.35E-2</v>
+      <c r="G7" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H7" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I7" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1004,11 +1024,13 @@
       <c r="F8" s="3">
         <v>0.18</v>
       </c>
-      <c r="G8" s="4">
-        <v>1.35E-2</v>
+      <c r="G8" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H8" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I8" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1048,11 +1070,13 @@
       <c r="F9" s="3">
         <v>0.18</v>
       </c>
-      <c r="G9" s="4">
-        <v>1.35E-2</v>
+      <c r="G9" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H9" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I9" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1092,11 +1116,13 @@
       <c r="F10" s="3">
         <v>0.18</v>
       </c>
-      <c r="G10" s="4">
-        <v>1.35E-2</v>
+      <c r="G10" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H10" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I10" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1136,11 +1162,13 @@
       <c r="F11" s="3">
         <v>0.18</v>
       </c>
-      <c r="G11" s="4">
-        <v>1.35E-2</v>
+      <c r="G11" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H11" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I11" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1180,11 +1208,13 @@
       <c r="F12" s="3">
         <v>0.18</v>
       </c>
-      <c r="G12" s="4">
-        <v>1.35E-2</v>
+      <c r="G12" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H12" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I12" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1224,11 +1254,13 @@
       <c r="F13" s="3">
         <v>0.18</v>
       </c>
-      <c r="G13" s="4">
-        <v>1.35E-2</v>
+      <c r="G13" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H13" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I13" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1268,11 +1300,13 @@
       <c r="F14" s="3">
         <v>0.18</v>
       </c>
-      <c r="G14" s="4">
-        <v>1.35E-2</v>
+      <c r="G14" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H14" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I14" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1312,11 +1346,13 @@
       <c r="F15" s="3">
         <v>0.18</v>
       </c>
-      <c r="G15" s="4">
-        <v>1.35E-2</v>
+      <c r="G15" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H15" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I15" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1356,11 +1392,13 @@
       <c r="F16" s="3">
         <v>0.18</v>
       </c>
-      <c r="G16" s="4">
-        <v>1.35E-2</v>
+      <c r="G16" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H16" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I16" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1400,11 +1438,13 @@
       <c r="F17" s="3">
         <v>0.18</v>
       </c>
-      <c r="G17" s="4">
-        <v>1.35E-2</v>
+      <c r="G17" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H17" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I17" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1444,11 +1484,13 @@
       <c r="F18" s="3">
         <v>0.18</v>
       </c>
-      <c r="G18" s="4">
-        <v>1.35E-2</v>
+      <c r="G18" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H18" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I18" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1488,11 +1530,13 @@
       <c r="F19" s="3">
         <v>0.18</v>
       </c>
-      <c r="G19" s="4">
-        <v>1.35E-2</v>
+      <c r="G19" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H19" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I19" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1532,11 +1576,13 @@
       <c r="F20" s="3">
         <v>0.18</v>
       </c>
-      <c r="G20" s="4">
-        <v>1.35E-2</v>
+      <c r="G20" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H20" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I20" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1576,11 +1622,13 @@
       <c r="F21" s="3">
         <v>0.18</v>
       </c>
-      <c r="G21" s="4">
-        <v>1.35E-2</v>
+      <c r="G21" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H21" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I21" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1620,11 +1668,13 @@
       <c r="F22" s="3">
         <v>0.18</v>
       </c>
-      <c r="G22" s="4">
-        <v>1.35E-2</v>
+      <c r="G22" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.353</v>
       </c>
       <c r="H22" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.232E-2</v>
       </c>
       <c r="I22" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1664,11 +1714,13 @@
       <c r="F23" s="3">
         <v>0.12</v>
       </c>
-      <c r="G23" s="4">
-        <v>1.35E-2</v>
+      <c r="G23" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H23" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I23" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1710,11 +1762,13 @@
       <c r="F24" s="3">
         <v>0.12</v>
       </c>
-      <c r="G24" s="4">
-        <v>1.35E-2</v>
+      <c r="G24" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H24" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I24" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1755,11 +1809,13 @@
       <c r="F25" s="3">
         <v>0.12</v>
       </c>
-      <c r="G25" s="4">
-        <v>1.35E-2</v>
+      <c r="G25" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H25" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I25" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1800,11 +1856,13 @@
       <c r="F26" s="3">
         <v>0.12</v>
       </c>
-      <c r="G26" s="4">
-        <v>1.35E-2</v>
+      <c r="G26" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H26" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I26" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1844,11 +1902,13 @@
       <c r="F27" s="3">
         <v>0.12</v>
       </c>
-      <c r="G27" s="4">
-        <v>1.35E-2</v>
+      <c r="G27" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H27" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I27" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1888,11 +1948,13 @@
       <c r="F28" s="3">
         <v>0.12</v>
       </c>
-      <c r="G28" s="4">
-        <v>1.35E-2</v>
+      <c r="G28" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H28" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I28" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1932,11 +1994,13 @@
       <c r="F29" s="3">
         <v>0.12</v>
       </c>
-      <c r="G29" s="4">
-        <v>1.35E-2</v>
+      <c r="G29" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H29" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I29" s="4">
         <v>2.8799999999999999E-2</v>
@@ -1976,11 +2040,13 @@
       <c r="F30" s="3">
         <v>0.12</v>
       </c>
-      <c r="G30" s="4">
-        <v>1.35E-2</v>
+      <c r="G30" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H30" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I30" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2020,11 +2086,13 @@
       <c r="F31" s="3">
         <v>0.12</v>
       </c>
-      <c r="G31" s="4">
-        <v>1.35E-2</v>
+      <c r="G31" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H31" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I31" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2064,11 +2132,13 @@
       <c r="F32" s="3">
         <v>0.12</v>
       </c>
-      <c r="G32" s="4">
-        <v>1.35E-2</v>
+      <c r="G32" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H32" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I32" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2108,11 +2178,13 @@
       <c r="F33" s="3">
         <v>0.12</v>
       </c>
-      <c r="G33" s="4">
-        <v>1.35E-2</v>
+      <c r="G33" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H33" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I33" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2152,11 +2224,13 @@
       <c r="F34" s="3">
         <v>0.12</v>
       </c>
-      <c r="G34" s="4">
-        <v>1.35E-2</v>
+      <c r="G34" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H34" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I34" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2196,11 +2270,13 @@
       <c r="F35" s="3">
         <v>0.12</v>
       </c>
-      <c r="G35" s="4">
-        <v>1.35E-2</v>
+      <c r="G35" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H35" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I35" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2240,11 +2316,13 @@
       <c r="F36" s="3">
         <v>0.12</v>
       </c>
-      <c r="G36" s="4">
-        <v>1.35E-2</v>
+      <c r="G36" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H36" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I36" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2284,11 +2362,13 @@
       <c r="F37" s="3">
         <v>0.12</v>
       </c>
-      <c r="G37" s="4">
-        <v>1.35E-2</v>
+      <c r="G37" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H37" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I37" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2328,11 +2408,13 @@
       <c r="F38" s="3">
         <v>0.12</v>
       </c>
-      <c r="G38" s="4">
-        <v>1.35E-2</v>
+      <c r="G38" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H38" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I38" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2372,11 +2454,13 @@
       <c r="F39" s="3">
         <v>0.12</v>
       </c>
-      <c r="G39" s="4">
-        <v>1.35E-2</v>
+      <c r="G39" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H39" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I39" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2416,11 +2500,13 @@
       <c r="F40" s="3">
         <v>0.12</v>
       </c>
-      <c r="G40" s="4">
-        <v>1.35E-2</v>
+      <c r="G40" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H40" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I40" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2460,11 +2546,13 @@
       <c r="F41" s="3">
         <v>0.12</v>
       </c>
-      <c r="G41" s="4">
-        <v>1.35E-2</v>
+      <c r="G41" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H41" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I41" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2504,11 +2592,13 @@
       <c r="F42" s="3">
         <v>0.12</v>
       </c>
-      <c r="G42" s="4">
-        <v>1.35E-2</v>
+      <c r="G42" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H42" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I42" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2548,11 +2638,13 @@
       <c r="F43" s="3">
         <v>0.12</v>
       </c>
-      <c r="G43" s="4">
-        <v>1.35E-2</v>
+      <c r="G43" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H43" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I43" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2592,11 +2684,13 @@
       <c r="F44" s="3">
         <v>0.12</v>
       </c>
-      <c r="G44" s="4">
-        <v>1.35E-2</v>
+      <c r="G44" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H44" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I44" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2636,11 +2730,13 @@
       <c r="F45" s="3">
         <v>0.12</v>
       </c>
-      <c r="G45" s="4">
-        <v>1.35E-2</v>
+      <c r="G45" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H45" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I45" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2680,11 +2776,13 @@
       <c r="F46" s="3">
         <v>0.12</v>
       </c>
-      <c r="G46" s="4">
-        <v>1.35E-2</v>
+      <c r="G46" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H46" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I46" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2724,11 +2822,13 @@
       <c r="F47" s="3">
         <v>0.12</v>
       </c>
-      <c r="G47" s="4">
-        <v>1.35E-2</v>
+      <c r="G47" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H47" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I47" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2768,11 +2868,13 @@
       <c r="F48" s="3">
         <v>0.12</v>
       </c>
-      <c r="G48" s="4">
-        <v>1.35E-2</v>
+      <c r="G48" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H48" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I48" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2812,11 +2914,13 @@
       <c r="F49" s="3">
         <v>0.12</v>
       </c>
-      <c r="G49" s="4">
-        <v>1.35E-2</v>
+      <c r="G49" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H49" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I49" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2856,11 +2960,13 @@
       <c r="F50" s="3">
         <v>0.12</v>
       </c>
-      <c r="G50" s="4">
-        <v>1.35E-2</v>
+      <c r="G50" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H50" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I50" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2900,11 +3006,13 @@
       <c r="F51" s="3">
         <v>0.12</v>
       </c>
-      <c r="G51" s="4">
-        <v>1.35E-2</v>
+      <c r="G51" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H51" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I51" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2944,11 +3052,13 @@
       <c r="F52" s="3">
         <v>0.12</v>
       </c>
-      <c r="G52" s="4">
-        <v>1.35E-2</v>
+      <c r="G52" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H52" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I52" s="4">
         <v>2.8799999999999999E-2</v>
@@ -2988,11 +3098,13 @@
       <c r="F53" s="3">
         <v>0.12</v>
       </c>
-      <c r="G53" s="4">
-        <v>1.35E-2</v>
+      <c r="G53" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H53" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I53" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3032,11 +3144,13 @@
       <c r="F54" s="3">
         <v>0.12</v>
       </c>
-      <c r="G54" s="4">
-        <v>1.35E-2</v>
+      <c r="G54" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H54" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I54" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3076,11 +3190,13 @@
       <c r="F55" s="3">
         <v>0.12</v>
       </c>
-      <c r="G55" s="4">
-        <v>1.35E-2</v>
+      <c r="G55" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H55" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I55" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3120,11 +3236,13 @@
       <c r="F56" s="3">
         <v>0.12</v>
       </c>
-      <c r="G56" s="4">
-        <v>1.35E-2</v>
+      <c r="G56" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H56" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I56" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3164,11 +3282,13 @@
       <c r="F57" s="3">
         <v>0.12</v>
       </c>
-      <c r="G57" s="4">
-        <v>1.35E-2</v>
+      <c r="G57" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H57" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I57" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3208,11 +3328,13 @@
       <c r="F58" s="3">
         <v>0.12</v>
       </c>
-      <c r="G58" s="4">
-        <v>1.35E-2</v>
+      <c r="G58" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H58" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I58" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3252,11 +3374,13 @@
       <c r="F59" s="3">
         <v>0.12</v>
       </c>
-      <c r="G59" s="4">
-        <v>1.35E-2</v>
+      <c r="G59" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H59" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I59" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3296,11 +3420,13 @@
       <c r="F60" s="3">
         <v>0.12</v>
       </c>
-      <c r="G60" s="4">
-        <v>1.35E-2</v>
+      <c r="G60" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H60" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I60" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3340,11 +3466,13 @@
       <c r="F61" s="3">
         <v>0.12</v>
       </c>
-      <c r="G61" s="4">
-        <v>1.35E-2</v>
+      <c r="G61" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H61" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I61" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3384,11 +3512,13 @@
       <c r="F62" s="3">
         <v>0.12</v>
       </c>
-      <c r="G62" s="4">
-        <v>1.35E-2</v>
+      <c r="G62" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H62" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I62" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3428,11 +3558,13 @@
       <c r="F63" s="3">
         <v>0.12</v>
       </c>
-      <c r="G63" s="4">
-        <v>1.35E-2</v>
+      <c r="G63" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H63" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I63" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3472,11 +3604,13 @@
       <c r="F64" s="3">
         <v>0.12</v>
       </c>
-      <c r="G64" s="4">
-        <v>1.35E-2</v>
+      <c r="G64" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H64" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I64" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3516,11 +3650,13 @@
       <c r="F65" s="3">
         <v>0.12</v>
       </c>
-      <c r="G65" s="4">
-        <v>1.35E-2</v>
+      <c r="G65" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H65" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I65" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3560,11 +3696,13 @@
       <c r="F66" s="3">
         <v>0.12</v>
       </c>
-      <c r="G66" s="4">
-        <v>1.35E-2</v>
+      <c r="G66" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H66" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I66" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3604,11 +3742,13 @@
       <c r="F67" s="3">
         <v>0.12</v>
       </c>
-      <c r="G67" s="4">
-        <v>1.35E-2</v>
+      <c r="G67" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H67" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I67" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3648,11 +3788,13 @@
       <c r="F68" s="3">
         <v>0.12</v>
       </c>
-      <c r="G68" s="4">
-        <v>1.35E-2</v>
+      <c r="G68" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H68" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I68" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3692,11 +3834,13 @@
       <c r="F69" s="3">
         <v>0.12</v>
       </c>
-      <c r="G69" s="4">
-        <v>1.35E-2</v>
+      <c r="G69" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H69" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I69" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3736,11 +3880,13 @@
       <c r="F70" s="3">
         <v>0.12</v>
       </c>
-      <c r="G70" s="4">
-        <v>1.35E-2</v>
+      <c r="G70" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H70" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I70" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3780,11 +3926,13 @@
       <c r="F71" s="3">
         <v>0.12</v>
       </c>
-      <c r="G71" s="4">
-        <v>1.35E-2</v>
+      <c r="G71" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H71" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I71" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3824,11 +3972,13 @@
       <c r="F72" s="3">
         <v>0.12</v>
       </c>
-      <c r="G72" s="4">
-        <v>1.35E-2</v>
+      <c r="G72" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H72" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I72" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3868,11 +4018,13 @@
       <c r="F73" s="3">
         <v>0.12</v>
       </c>
-      <c r="G73" s="4">
-        <v>1.35E-2</v>
+      <c r="G73" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H73" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I73" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3912,11 +4064,13 @@
       <c r="F74" s="3">
         <v>0.12</v>
       </c>
-      <c r="G74" s="4">
-        <v>1.35E-2</v>
+      <c r="G74" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H74" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I74" s="4">
         <v>2.8799999999999999E-2</v>
@@ -3956,11 +4110,13 @@
       <c r="F75" s="3">
         <v>0.12</v>
       </c>
-      <c r="G75" s="4">
-        <v>1.35E-2</v>
+      <c r="G75" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H75" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I75" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4000,11 +4156,13 @@
       <c r="F76" s="3">
         <v>0.12</v>
       </c>
-      <c r="G76" s="4">
-        <v>1.35E-2</v>
+      <c r="G76" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H76" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I76" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4044,11 +4202,13 @@
       <c r="F77" s="3">
         <v>0.12</v>
       </c>
-      <c r="G77" s="4">
-        <v>1.35E-2</v>
+      <c r="G77" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H77" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I77" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4088,11 +4248,13 @@
       <c r="F78" s="3">
         <v>0.12</v>
       </c>
-      <c r="G78" s="4">
-        <v>1.35E-2</v>
+      <c r="G78" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H78" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I78" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4132,11 +4294,13 @@
       <c r="F79" s="3">
         <v>0.12</v>
       </c>
-      <c r="G79" s="4">
-        <v>1.35E-2</v>
+      <c r="G79" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H79" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I79" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4176,11 +4340,13 @@
       <c r="F80" s="3">
         <v>0.12</v>
       </c>
-      <c r="G80" s="4">
-        <v>1.35E-2</v>
+      <c r="G80" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H80" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I80" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4220,11 +4386,13 @@
       <c r="F81" s="3">
         <v>0.12</v>
       </c>
-      <c r="G81" s="4">
-        <v>1.35E-2</v>
+      <c r="G81" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H81" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I81" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4264,11 +4432,13 @@
       <c r="F82" s="3">
         <v>0.12</v>
       </c>
-      <c r="G82" s="4">
-        <v>1.35E-2</v>
+      <c r="G82" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H82" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I82" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4308,11 +4478,13 @@
       <c r="F83" s="3">
         <v>0.12</v>
       </c>
-      <c r="G83" s="4">
-        <v>1.35E-2</v>
+      <c r="G83" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H83" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I83" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4352,11 +4524,13 @@
       <c r="F84" s="3">
         <v>0.12</v>
       </c>
-      <c r="G84" s="4">
-        <v>1.35E-2</v>
+      <c r="G84" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H84" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I84" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4396,11 +4570,13 @@
       <c r="F85" s="3">
         <v>0.12</v>
       </c>
-      <c r="G85" s="4">
-        <v>1.35E-2</v>
+      <c r="G85" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H85" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I85" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4440,11 +4616,13 @@
       <c r="F86" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G86" s="4">
-        <v>1.35E-2</v>
+      <c r="G86" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H86" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I86" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4484,11 +4662,13 @@
       <c r="F87" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G87" s="4">
-        <v>1.35E-2</v>
+      <c r="G87" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H87" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I87" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4528,11 +4708,13 @@
       <c r="F88" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G88" s="4">
-        <v>1.35E-2</v>
+      <c r="G88" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H88" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I88" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4572,11 +4754,13 @@
       <c r="F89" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G89" s="4">
-        <v>1.35E-2</v>
+      <c r="G89" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H89" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I89" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4616,11 +4800,13 @@
       <c r="F90" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G90" s="4">
-        <v>1.35E-2</v>
+      <c r="G90" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H90" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I90" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4660,11 +4846,13 @@
       <c r="F91" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G91" s="4">
-        <v>1.35E-2</v>
+      <c r="G91" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H91" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I91" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4704,11 +4892,13 @@
       <c r="F92" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G92" s="4">
-        <v>1.35E-2</v>
+      <c r="G92" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H92" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I92" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4748,11 +4938,13 @@
       <c r="F93" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G93" s="4">
-        <v>1.35E-2</v>
+      <c r="G93" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H93" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I93" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4792,11 +4984,13 @@
       <c r="F94" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G94" s="4">
-        <v>1.35E-2</v>
+      <c r="G94" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H94" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I94" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4836,11 +5030,13 @@
       <c r="F95" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G95" s="4">
-        <v>1.35E-2</v>
+      <c r="G95" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H95" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I95" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4880,11 +5076,13 @@
       <c r="F96" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G96" s="4">
-        <v>1.35E-2</v>
+      <c r="G96" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H96" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I96" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4924,11 +5122,13 @@
       <c r="F97" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G97" s="4">
-        <v>1.35E-2</v>
+      <c r="G97" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H97" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I97" s="4">
         <v>2.8799999999999999E-2</v>
@@ -4968,11 +5168,13 @@
       <c r="F98" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G98" s="4">
-        <v>1.35E-2</v>
+      <c r="G98" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H98" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I98" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5012,11 +5214,13 @@
       <c r="F99" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G99" s="4">
-        <v>1.35E-2</v>
+      <c r="G99" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H99" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I99" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5056,11 +5260,13 @@
       <c r="F100" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G100" s="4">
-        <v>1.35E-2</v>
+      <c r="G100" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H100" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I100" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5100,11 +5306,13 @@
       <c r="F101" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G101" s="4">
-        <v>1.35E-2</v>
+      <c r="G101" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H101" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I101" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5144,11 +5352,13 @@
       <c r="F102" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G102" s="4">
-        <v>1.35E-2</v>
+      <c r="G102" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H102" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I102" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5188,11 +5398,13 @@
       <c r="F103" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G103" s="4">
-        <v>1.35E-2</v>
+      <c r="G103" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H103" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I103" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5232,11 +5444,13 @@
       <c r="F104" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G104" s="4">
-        <v>1.35E-2</v>
+      <c r="G104" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H104" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I104" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5276,11 +5490,13 @@
       <c r="F105" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G105" s="4">
-        <v>1.35E-2</v>
+      <c r="G105" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H105" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I105" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5320,11 +5536,13 @@
       <c r="F106" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G106" s="4">
-        <v>1.35E-2</v>
+      <c r="G106" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.5344999999999998</v>
       </c>
       <c r="H106" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>7.0679999999999993E-2</v>
       </c>
       <c r="I106" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5364,11 +5582,13 @@
       <c r="F107" s="3">
         <v>0.12</v>
       </c>
-      <c r="G107" s="4">
-        <v>1.35E-2</v>
+      <c r="G107" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H107" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I107" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5408,11 +5628,13 @@
       <c r="F108" s="3">
         <v>0.12</v>
       </c>
-      <c r="G108" s="4">
-        <v>1.35E-2</v>
+      <c r="G108" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H108" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I108" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5452,11 +5674,13 @@
       <c r="F109" s="3">
         <v>0.12</v>
       </c>
-      <c r="G109" s="4">
-        <v>1.35E-2</v>
+      <c r="G109" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H109" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I109" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5496,11 +5720,13 @@
       <c r="F110" s="3">
         <v>0.12</v>
       </c>
-      <c r="G110" s="4">
-        <v>1.35E-2</v>
+      <c r="G110" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H110" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I110" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5540,11 +5766,13 @@
       <c r="F111" s="3">
         <v>0.12</v>
       </c>
-      <c r="G111" s="4">
-        <v>1.35E-2</v>
+      <c r="G111" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H111" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I111" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5584,11 +5812,13 @@
       <c r="F112" s="3">
         <v>0.12</v>
       </c>
-      <c r="G112" s="4">
-        <v>1.35E-2</v>
+      <c r="G112" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H112" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I112" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5628,11 +5858,13 @@
       <c r="F113" s="3">
         <v>0.12</v>
       </c>
-      <c r="G113" s="4">
-        <v>1.35E-2</v>
+      <c r="G113" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H113" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I113" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5672,11 +5904,13 @@
       <c r="F114" s="3">
         <v>0.12</v>
       </c>
-      <c r="G114" s="4">
-        <v>1.35E-2</v>
+      <c r="G114" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H114" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I114" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5716,11 +5950,13 @@
       <c r="F115" s="3">
         <v>0.12</v>
       </c>
-      <c r="G115" s="4">
-        <v>1.35E-2</v>
+      <c r="G115" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H115" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I115" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5760,11 +5996,13 @@
       <c r="F116" s="3">
         <v>0.12</v>
       </c>
-      <c r="G116" s="4">
-        <v>1.35E-2</v>
+      <c r="G116" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H116" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I116" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5804,11 +6042,13 @@
       <c r="F117" s="3">
         <v>0.12</v>
       </c>
-      <c r="G117" s="4">
-        <v>1.35E-2</v>
+      <c r="G117" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H117" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I117" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5848,11 +6088,13 @@
       <c r="F118" s="3">
         <v>0.12</v>
       </c>
-      <c r="G118" s="4">
-        <v>1.35E-2</v>
+      <c r="G118" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H118" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I118" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5892,11 +6134,13 @@
       <c r="F119" s="3">
         <v>0.12</v>
       </c>
-      <c r="G119" s="4">
-        <v>1.35E-2</v>
+      <c r="G119" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H119" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I119" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5936,11 +6180,13 @@
       <c r="F120" s="3">
         <v>0.12</v>
       </c>
-      <c r="G120" s="4">
-        <v>1.35E-2</v>
+      <c r="G120" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H120" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I120" s="4">
         <v>2.8799999999999999E-2</v>
@@ -5980,11 +6226,13 @@
       <c r="F121" s="3">
         <v>0.12</v>
       </c>
-      <c r="G121" s="4">
-        <v>1.35E-2</v>
+      <c r="G121" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H121" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I121" s="4">
         <v>2.8799999999999999E-2</v>
@@ -6024,11 +6272,13 @@
       <c r="F122" s="3">
         <v>0.12</v>
       </c>
-      <c r="G122" s="4">
-        <v>1.35E-2</v>
+      <c r="G122" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H122" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I122" s="4">
         <v>2.8799999999999999E-2</v>
@@ -6068,11 +6318,13 @@
       <c r="F123" s="3">
         <v>0.12</v>
       </c>
-      <c r="G123" s="4">
-        <v>1.35E-2</v>
+      <c r="G123" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H123" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I123" s="4">
         <v>2.8799999999999999E-2</v>
@@ -6112,11 +6364,13 @@
       <c r="F124" s="3">
         <v>0.12</v>
       </c>
-      <c r="G124" s="4">
-        <v>1.35E-2</v>
+      <c r="G124" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H124" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I124" s="4">
         <v>2.8799999999999999E-2</v>
@@ -6156,11 +6410,13 @@
       <c r="F125" s="3">
         <v>0.12</v>
       </c>
-      <c r="G125" s="4">
-        <v>1.35E-2</v>
+      <c r="G125" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H125" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I125" s="4">
         <v>2.8799999999999999E-2</v>
@@ -6200,11 +6456,13 @@
       <c r="F126" s="3">
         <v>0.12</v>
       </c>
-      <c r="G126" s="4">
-        <v>1.35E-2</v>
+      <c r="G126" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H126" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I126" s="4">
         <v>2.8799999999999999E-2</v>
@@ -6244,11 +6502,13 @@
       <c r="F127" s="3">
         <v>0.12</v>
       </c>
-      <c r="G127" s="4">
-        <v>1.35E-2</v>
+      <c r="G127" s="7">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>1.452</v>
       </c>
       <c r="H127" s="4">
-        <v>6.2300000000000001E-2</v>
+        <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
+        <v>6.6879999999999995E-2</v>
       </c>
       <c r="I127" s="4">
         <v>2.8799999999999999E-2</v>

--- a/Custo de reposição.xlsx
+++ b/Custo de reposição.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\supor\Documents\src\simulador-sobel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1C6D80-63B7-4955-97B6-52DAAEFC20D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00EAC83-82F2-44A7-A6C5-A502BE5AF49A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{BB133F6D-E864-4E6F-860C-EF749A2C5562}"/>
   </bookViews>
@@ -171,8 +171,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+  <numFmts count="2">
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.00000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -228,7 +229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -238,7 +239,9 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -246,16 +249,13 @@
   </cellStyles>
   <dxfs count="12">
     <dxf>
-      <numFmt numFmtId="168" formatCode="0.000"/>
+      <numFmt numFmtId="165" formatCode="0.0000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="164" formatCode="0.000"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -274,6 +274,9 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -318,21 +321,21 @@
     <tableColumn id="3" xr3:uid="{30E4D70B-ADF2-466B-B602-635A231CE43C}" name="Custo NET"/>
     <tableColumn id="4" xr3:uid="{15A813F2-5920-417B-BF32-F2EF44A61331}" name="Custo Fixo"/>
     <tableColumn id="5" xr3:uid="{35E666E8-E549-4075-87DB-B07BB23AEE27}" name="Preço de Venda"/>
-    <tableColumn id="6" xr3:uid="{21D9CE8A-DDC9-4C1E-8E36-E36EF7BB241C}" name="ICMS" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{32B2DD0B-CFCD-4A70-A33F-8CD811A432CA}" name="PIS" dataDxfId="0">
-      <calculatedColumnFormula>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</calculatedColumnFormula>
+    <tableColumn id="6" xr3:uid="{21D9CE8A-DDC9-4C1E-8E36-E36EF7BB241C}" name="ICMS" dataDxfId="9"/>
+    <tableColumn id="7" xr3:uid="{32B2DD0B-CFCD-4A70-A33F-8CD811A432CA}" name="PIS" dataDxfId="2">
+      <calculatedColumnFormula>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{27154275-A3D1-460D-847E-4471936E7A24}" name="COFINS" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{27154275-A3D1-460D-847E-4471936E7A24}" name="COFINS" dataDxfId="0">
       <calculatedColumnFormula>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{C06D739E-340E-4A8B-93E0-75AE7694A33C}" name="Comissão" dataDxfId="3"/>
-    <tableColumn id="10" xr3:uid="{005CBC4D-D93B-4AB1-9E7E-583613ADA097}" name="IPI" dataDxfId="9"/>
-    <tableColumn id="11" xr3:uid="{9EE88528-3943-4DA4-8C24-0AF2638DA941}" name="Bonificação" dataDxfId="8"/>
-    <tableColumn id="12" xr3:uid="{D3594A20-D6CA-4EDB-80E5-24A3EE1DCDF7}" name="Contigência" dataDxfId="7"/>
-    <tableColumn id="13" xr3:uid="{AEF59067-D7C7-4B32-98D3-845B50796345}" name="Contrato" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{C06D739E-340E-4A8B-93E0-75AE7694A33C}" name="Comissão" dataDxfId="1"/>
+    <tableColumn id="10" xr3:uid="{005CBC4D-D93B-4AB1-9E7E-583613ADA097}" name="IPI" dataDxfId="8"/>
+    <tableColumn id="11" xr3:uid="{9EE88528-3943-4DA4-8C24-0AF2638DA941}" name="Bonificação" dataDxfId="7"/>
+    <tableColumn id="12" xr3:uid="{D3594A20-D6CA-4EDB-80E5-24A3EE1DCDF7}" name="Contigência" dataDxfId="6"/>
+    <tableColumn id="13" xr3:uid="{AEF59067-D7C7-4B32-98D3-845B50796345}" name="Contrato" dataDxfId="5"/>
     <tableColumn id="14" xr3:uid="{E07F0135-882D-4687-B21E-17713EE0A152}" name="Frete Caixa"/>
-    <tableColumn id="15" xr3:uid="{A34AEA56-11E8-4AAA-A787-A9C43F8F9D87}" name="MVA" dataDxfId="5"/>
-    <tableColumn id="16" xr3:uid="{AA8F6E27-D028-4B2B-BA6D-471502EFE8D8}" name="%Estrategico" dataDxfId="4"/>
+    <tableColumn id="15" xr3:uid="{A34AEA56-11E8-4AAA-A787-A9C43F8F9D87}" name="MVA" dataDxfId="4"/>
+    <tableColumn id="16" xr3:uid="{AA8F6E27-D028-4B2B-BA6D-471502EFE8D8}" name="%Estrategico" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -670,7 +673,7 @@
     <col min="5" max="5" width="17" customWidth="1"/>
     <col min="6" max="6" width="7.7109375" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
-    <col min="8" max="8" width="9.7109375" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" style="7" customWidth="1"/>
     <col min="9" max="9" width="11.5703125" customWidth="1"/>
     <col min="10" max="10" width="9.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.28515625" customWidth="1"/>
@@ -703,7 +706,7 @@
       <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -747,11 +750,11 @@
       <c r="F2" s="3">
         <v>0.18</v>
       </c>
-      <c r="G2" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H2" s="4">
+      <c r="G2" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H2" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -794,11 +797,11 @@
       <c r="F3" s="3">
         <v>0.18</v>
       </c>
-      <c r="G3" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H3" s="4">
+      <c r="G3" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H3" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -840,11 +843,11 @@
       <c r="F4" s="3">
         <v>0.18</v>
       </c>
-      <c r="G4" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H4" s="4">
+      <c r="G4" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H4" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -886,11 +889,11 @@
       <c r="F5" s="3">
         <v>0.18</v>
       </c>
-      <c r="G5" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H5" s="4">
+      <c r="G5" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H5" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -932,11 +935,11 @@
       <c r="F6" s="3">
         <v>0.18</v>
       </c>
-      <c r="G6" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H6" s="4">
+      <c r="G6" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H6" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -978,11 +981,11 @@
       <c r="F7" s="3">
         <v>0.18</v>
       </c>
-      <c r="G7" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H7" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1024,11 +1027,11 @@
       <c r="F8" s="3">
         <v>0.18</v>
       </c>
-      <c r="G8" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H8" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1070,11 +1073,11 @@
       <c r="F9" s="3">
         <v>0.18</v>
       </c>
-      <c r="G9" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H9" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1116,11 +1119,11 @@
       <c r="F10" s="3">
         <v>0.18</v>
       </c>
-      <c r="G10" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H10" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1162,11 +1165,11 @@
       <c r="F11" s="3">
         <v>0.18</v>
       </c>
-      <c r="G11" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H11" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1208,11 +1211,11 @@
       <c r="F12" s="3">
         <v>0.18</v>
       </c>
-      <c r="G12" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="G12" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H12" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1254,11 +1257,11 @@
       <c r="F13" s="3">
         <v>0.18</v>
       </c>
-      <c r="G13" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H13" s="4">
+      <c r="G13" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H13" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1300,11 +1303,11 @@
       <c r="F14" s="3">
         <v>0.18</v>
       </c>
-      <c r="G14" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H14" s="4">
+      <c r="G14" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H14" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1346,11 +1349,11 @@
       <c r="F15" s="3">
         <v>0.18</v>
       </c>
-      <c r="G15" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H15" s="4">
+      <c r="G15" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H15" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1392,11 +1395,11 @@
       <c r="F16" s="3">
         <v>0.18</v>
       </c>
-      <c r="G16" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H16" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1438,11 +1441,11 @@
       <c r="F17" s="3">
         <v>0.18</v>
       </c>
-      <c r="G17" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H17" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1484,11 +1487,11 @@
       <c r="F18" s="3">
         <v>0.18</v>
       </c>
-      <c r="G18" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H18" s="4">
+      <c r="G18" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H18" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1530,11 +1533,11 @@
       <c r="F19" s="3">
         <v>0.18</v>
       </c>
-      <c r="G19" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H19" s="4">
+      <c r="G19" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H19" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1576,11 +1579,11 @@
       <c r="F20" s="3">
         <v>0.18</v>
       </c>
-      <c r="G20" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H20" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1622,11 +1625,11 @@
       <c r="F21" s="3">
         <v>0.18</v>
       </c>
-      <c r="G21" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H21" s="4">
+      <c r="G21" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H21" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1668,11 +1671,11 @@
       <c r="F22" s="3">
         <v>0.18</v>
       </c>
-      <c r="G22" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.353</v>
-      </c>
-      <c r="H22" s="4">
+      <c r="G22" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.353E-2</v>
+      </c>
+      <c r="H22" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.232E-2</v>
       </c>
@@ -1714,11 +1717,11 @@
       <c r="F23" s="3">
         <v>0.12</v>
       </c>
-      <c r="G23" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H23" s="4">
+      <c r="G23" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H23" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -1762,11 +1765,11 @@
       <c r="F24" s="3">
         <v>0.12</v>
       </c>
-      <c r="G24" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H24" s="4">
+      <c r="G24" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H24" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -1809,11 +1812,11 @@
       <c r="F25" s="3">
         <v>0.12</v>
       </c>
-      <c r="G25" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H25" s="4">
+      <c r="G25" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H25" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -1856,11 +1859,11 @@
       <c r="F26" s="3">
         <v>0.12</v>
       </c>
-      <c r="G26" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H26" s="4">
+      <c r="G26" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H26" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -1902,11 +1905,11 @@
       <c r="F27" s="3">
         <v>0.12</v>
       </c>
-      <c r="G27" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H27" s="4">
+      <c r="G27" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H27" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -1948,11 +1951,11 @@
       <c r="F28" s="3">
         <v>0.12</v>
       </c>
-      <c r="G28" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H28" s="4">
+      <c r="G28" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H28" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -1994,11 +1997,11 @@
       <c r="F29" s="3">
         <v>0.12</v>
       </c>
-      <c r="G29" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H29" s="4">
+      <c r="G29" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H29" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2040,11 +2043,11 @@
       <c r="F30" s="3">
         <v>0.12</v>
       </c>
-      <c r="G30" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H30" s="4">
+      <c r="G30" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H30" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2086,11 +2089,11 @@
       <c r="F31" s="3">
         <v>0.12</v>
       </c>
-      <c r="G31" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H31" s="4">
+      <c r="G31" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H31" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2132,11 +2135,11 @@
       <c r="F32" s="3">
         <v>0.12</v>
       </c>
-      <c r="G32" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H32" s="4">
+      <c r="G32" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H32" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2178,11 +2181,11 @@
       <c r="F33" s="3">
         <v>0.12</v>
       </c>
-      <c r="G33" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H33" s="4">
+      <c r="G33" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H33" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2224,11 +2227,11 @@
       <c r="F34" s="3">
         <v>0.12</v>
       </c>
-      <c r="G34" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H34" s="4">
+      <c r="G34" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H34" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2270,11 +2273,11 @@
       <c r="F35" s="3">
         <v>0.12</v>
       </c>
-      <c r="G35" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H35" s="4">
+      <c r="G35" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H35" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2316,11 +2319,11 @@
       <c r="F36" s="3">
         <v>0.12</v>
       </c>
-      <c r="G36" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H36" s="4">
+      <c r="G36" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H36" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2362,11 +2365,11 @@
       <c r="F37" s="3">
         <v>0.12</v>
       </c>
-      <c r="G37" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H37" s="4">
+      <c r="G37" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H37" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2408,11 +2411,11 @@
       <c r="F38" s="3">
         <v>0.12</v>
       </c>
-      <c r="G38" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H38" s="4">
+      <c r="G38" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H38" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2454,11 +2457,11 @@
       <c r="F39" s="3">
         <v>0.12</v>
       </c>
-      <c r="G39" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H39" s="4">
+      <c r="G39" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H39" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2500,11 +2503,11 @@
       <c r="F40" s="3">
         <v>0.12</v>
       </c>
-      <c r="G40" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H40" s="4">
+      <c r="G40" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H40" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2546,11 +2549,11 @@
       <c r="F41" s="3">
         <v>0.12</v>
       </c>
-      <c r="G41" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H41" s="4">
+      <c r="G41" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H41" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2592,11 +2595,11 @@
       <c r="F42" s="3">
         <v>0.12</v>
       </c>
-      <c r="G42" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="G42" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H42" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2638,11 +2641,11 @@
       <c r="F43" s="3">
         <v>0.12</v>
       </c>
-      <c r="G43" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H43" s="4">
+      <c r="G43" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H43" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2684,11 +2687,11 @@
       <c r="F44" s="3">
         <v>0.12</v>
       </c>
-      <c r="G44" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="G44" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H44" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2730,11 +2733,11 @@
       <c r="F45" s="3">
         <v>0.12</v>
       </c>
-      <c r="G45" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G45" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H45" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2776,11 +2779,11 @@
       <c r="F46" s="3">
         <v>0.12</v>
       </c>
-      <c r="G46" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H46" s="4">
+      <c r="G46" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H46" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2822,11 +2825,11 @@
       <c r="F47" s="3">
         <v>0.12</v>
       </c>
-      <c r="G47" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H47" s="4">
+      <c r="G47" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H47" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2868,11 +2871,11 @@
       <c r="F48" s="3">
         <v>0.12</v>
       </c>
-      <c r="G48" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H48" s="4">
+      <c r="G48" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H48" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2914,11 +2917,11 @@
       <c r="F49" s="3">
         <v>0.12</v>
       </c>
-      <c r="G49" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H49" s="4">
+      <c r="G49" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H49" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -2960,11 +2963,11 @@
       <c r="F50" s="3">
         <v>0.12</v>
       </c>
-      <c r="G50" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H50" s="4">
+      <c r="G50" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H50" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3006,11 +3009,11 @@
       <c r="F51" s="3">
         <v>0.12</v>
       </c>
-      <c r="G51" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H51" s="4">
+      <c r="G51" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H51" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3052,11 +3055,11 @@
       <c r="F52" s="3">
         <v>0.12</v>
       </c>
-      <c r="G52" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H52" s="4">
+      <c r="G52" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H52" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3098,11 +3101,11 @@
       <c r="F53" s="3">
         <v>0.12</v>
       </c>
-      <c r="G53" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H53" s="4">
+      <c r="G53" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H53" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3144,11 +3147,11 @@
       <c r="F54" s="3">
         <v>0.12</v>
       </c>
-      <c r="G54" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H54" s="4">
+      <c r="G54" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H54" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3190,11 +3193,11 @@
       <c r="F55" s="3">
         <v>0.12</v>
       </c>
-      <c r="G55" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H55" s="4">
+      <c r="G55" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H55" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3236,11 +3239,11 @@
       <c r="F56" s="3">
         <v>0.12</v>
       </c>
-      <c r="G56" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H56" s="4">
+      <c r="G56" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H56" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3282,11 +3285,11 @@
       <c r="F57" s="3">
         <v>0.12</v>
       </c>
-      <c r="G57" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H57" s="4">
+      <c r="G57" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H57" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3328,11 +3331,11 @@
       <c r="F58" s="3">
         <v>0.12</v>
       </c>
-      <c r="G58" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H58" s="4">
+      <c r="G58" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H58" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3374,11 +3377,11 @@
       <c r="F59" s="3">
         <v>0.12</v>
       </c>
-      <c r="G59" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H59" s="4">
+      <c r="G59" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H59" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3420,11 +3423,11 @@
       <c r="F60" s="3">
         <v>0.12</v>
       </c>
-      <c r="G60" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H60" s="4">
+      <c r="G60" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H60" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3466,11 +3469,11 @@
       <c r="F61" s="3">
         <v>0.12</v>
       </c>
-      <c r="G61" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="G61" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H61" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3512,11 +3515,11 @@
       <c r="F62" s="3">
         <v>0.12</v>
       </c>
-      <c r="G62" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H62" s="4">
+      <c r="G62" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H62" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3558,11 +3561,11 @@
       <c r="F63" s="3">
         <v>0.12</v>
       </c>
-      <c r="G63" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="G63" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H63" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3604,11 +3607,11 @@
       <c r="F64" s="3">
         <v>0.12</v>
       </c>
-      <c r="G64" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H64" s="4">
+      <c r="G64" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H64" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3650,11 +3653,11 @@
       <c r="F65" s="3">
         <v>0.12</v>
       </c>
-      <c r="G65" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H65" s="4">
+      <c r="G65" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H65" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3696,11 +3699,11 @@
       <c r="F66" s="3">
         <v>0.12</v>
       </c>
-      <c r="G66" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H66" s="4">
+      <c r="G66" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H66" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3742,11 +3745,11 @@
       <c r="F67" s="3">
         <v>0.12</v>
       </c>
-      <c r="G67" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H67" s="4">
+      <c r="G67" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H67" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3788,11 +3791,11 @@
       <c r="F68" s="3">
         <v>0.12</v>
       </c>
-      <c r="G68" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H68" s="4">
+      <c r="G68" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H68" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3834,11 +3837,11 @@
       <c r="F69" s="3">
         <v>0.12</v>
       </c>
-      <c r="G69" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H69" s="4">
+      <c r="G69" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H69" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3880,11 +3883,11 @@
       <c r="F70" s="3">
         <v>0.12</v>
       </c>
-      <c r="G70" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H70" s="4">
+      <c r="G70" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H70" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3926,11 +3929,11 @@
       <c r="F71" s="3">
         <v>0.12</v>
       </c>
-      <c r="G71" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H71" s="4">
+      <c r="G71" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H71" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -3972,11 +3975,11 @@
       <c r="F72" s="3">
         <v>0.12</v>
       </c>
-      <c r="G72" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H72" s="4">
+      <c r="G72" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H72" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4018,11 +4021,11 @@
       <c r="F73" s="3">
         <v>0.12</v>
       </c>
-      <c r="G73" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H73" s="4">
+      <c r="G73" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H73" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4064,11 +4067,11 @@
       <c r="F74" s="3">
         <v>0.12</v>
       </c>
-      <c r="G74" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H74" s="4">
+      <c r="G74" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H74" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4110,11 +4113,11 @@
       <c r="F75" s="3">
         <v>0.12</v>
       </c>
-      <c r="G75" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H75" s="4">
+      <c r="G75" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H75" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4156,11 +4159,11 @@
       <c r="F76" s="3">
         <v>0.12</v>
       </c>
-      <c r="G76" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H76" s="4">
+      <c r="G76" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H76" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4202,11 +4205,11 @@
       <c r="F77" s="3">
         <v>0.12</v>
       </c>
-      <c r="G77" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H77" s="4">
+      <c r="G77" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H77" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4248,11 +4251,11 @@
       <c r="F78" s="3">
         <v>0.12</v>
       </c>
-      <c r="G78" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H78" s="4">
+      <c r="G78" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H78" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4294,11 +4297,11 @@
       <c r="F79" s="3">
         <v>0.12</v>
       </c>
-      <c r="G79" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H79" s="4">
+      <c r="G79" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H79" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4340,11 +4343,11 @@
       <c r="F80" s="3">
         <v>0.12</v>
       </c>
-      <c r="G80" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H80" s="4">
+      <c r="G80" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H80" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4386,11 +4389,11 @@
       <c r="F81" s="3">
         <v>0.12</v>
       </c>
-      <c r="G81" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H81" s="4">
+      <c r="G81" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H81" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4432,11 +4435,11 @@
       <c r="F82" s="3">
         <v>0.12</v>
       </c>
-      <c r="G82" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H82" s="4">
+      <c r="G82" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H82" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4478,11 +4481,11 @@
       <c r="F83" s="3">
         <v>0.12</v>
       </c>
-      <c r="G83" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H83" s="4">
+      <c r="G83" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H83" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4524,11 +4527,11 @@
       <c r="F84" s="3">
         <v>0.12</v>
       </c>
-      <c r="G84" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H84" s="4">
+      <c r="G84" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H84" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4570,11 +4573,11 @@
       <c r="F85" s="3">
         <v>0.12</v>
       </c>
-      <c r="G85" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H85" s="4">
+      <c r="G85" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H85" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -4616,11 +4619,11 @@
       <c r="F86" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G86" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H86" s="4">
+      <c r="G86" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H86" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -4662,11 +4665,11 @@
       <c r="F87" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G87" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H87" s="4">
+      <c r="G87" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H87" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -4708,11 +4711,11 @@
       <c r="F88" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G88" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H88" s="4">
+      <c r="G88" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H88" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -4754,11 +4757,11 @@
       <c r="F89" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G89" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H89" s="4">
+      <c r="G89" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H89" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -4800,11 +4803,11 @@
       <c r="F90" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G90" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H90" s="4">
+      <c r="G90" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H90" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -4846,11 +4849,11 @@
       <c r="F91" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G91" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H91" s="4">
+      <c r="G91" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H91" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -4892,11 +4895,11 @@
       <c r="F92" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G92" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H92" s="4">
+      <c r="G92" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H92" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -4938,11 +4941,11 @@
       <c r="F93" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G93" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H93" s="4">
+      <c r="G93" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H93" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -4984,11 +4987,11 @@
       <c r="F94" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G94" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H94" s="4">
+      <c r="G94" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H94" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5030,11 +5033,11 @@
       <c r="F95" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G95" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H95" s="4">
+      <c r="G95" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H95" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5076,11 +5079,11 @@
       <c r="F96" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G96" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H96" s="4">
+      <c r="G96" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H96" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5122,11 +5125,11 @@
       <c r="F97" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G97" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H97" s="4">
+      <c r="G97" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H97" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5168,11 +5171,11 @@
       <c r="F98" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G98" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H98" s="4">
+      <c r="G98" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H98" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5214,11 +5217,11 @@
       <c r="F99" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G99" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H99" s="4">
+      <c r="G99" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H99" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5260,11 +5263,11 @@
       <c r="F100" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G100" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H100" s="4">
+      <c r="G100" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H100" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5306,11 +5309,11 @@
       <c r="F101" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G101" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H101" s="4">
+      <c r="G101" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H101" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5352,11 +5355,11 @@
       <c r="F102" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G102" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H102" s="4">
+      <c r="G102" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H102" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5398,11 +5401,11 @@
       <c r="F103" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G103" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H103" s="4">
+      <c r="G103" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H103" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5444,11 +5447,11 @@
       <c r="F104" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G104" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H104" s="4">
+      <c r="G104" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H104" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5490,11 +5493,11 @@
       <c r="F105" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G105" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H105" s="4">
+      <c r="G105" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H105" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5536,11 +5539,11 @@
       <c r="F106" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="G106" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.5344999999999998</v>
-      </c>
-      <c r="H106" s="4">
+      <c r="G106" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.5344999999999998E-2</v>
+      </c>
+      <c r="H106" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>7.0679999999999993E-2</v>
       </c>
@@ -5582,11 +5585,11 @@
       <c r="F107" s="3">
         <v>0.12</v>
       </c>
-      <c r="G107" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H107" s="4">
+      <c r="G107" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H107" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -5628,11 +5631,11 @@
       <c r="F108" s="3">
         <v>0.12</v>
       </c>
-      <c r="G108" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H108" s="4">
+      <c r="G108" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H108" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -5674,11 +5677,11 @@
       <c r="F109" s="3">
         <v>0.12</v>
       </c>
-      <c r="G109" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H109" s="4">
+      <c r="G109" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H109" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -5720,11 +5723,11 @@
       <c r="F110" s="3">
         <v>0.12</v>
       </c>
-      <c r="G110" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H110" s="4">
+      <c r="G110" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H110" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -5766,11 +5769,11 @@
       <c r="F111" s="3">
         <v>0.12</v>
       </c>
-      <c r="G111" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H111" s="4">
+      <c r="G111" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H111" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -5812,11 +5815,11 @@
       <c r="F112" s="3">
         <v>0.12</v>
       </c>
-      <c r="G112" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H112" s="4">
+      <c r="G112" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H112" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -5858,11 +5861,11 @@
       <c r="F113" s="3">
         <v>0.12</v>
       </c>
-      <c r="G113" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H113" s="4">
+      <c r="G113" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H113" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -5904,11 +5907,11 @@
       <c r="F114" s="3">
         <v>0.12</v>
       </c>
-      <c r="G114" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H114" s="4">
+      <c r="G114" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H114" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -5950,11 +5953,11 @@
       <c r="F115" s="3">
         <v>0.12</v>
       </c>
-      <c r="G115" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H115" s="4">
+      <c r="G115" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H115" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -5996,11 +5999,11 @@
       <c r="F116" s="3">
         <v>0.12</v>
       </c>
-      <c r="G116" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H116" s="4">
+      <c r="G116" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H116" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6042,11 +6045,11 @@
       <c r="F117" s="3">
         <v>0.12</v>
       </c>
-      <c r="G117" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H117" s="4">
+      <c r="G117" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H117" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6088,11 +6091,11 @@
       <c r="F118" s="3">
         <v>0.12</v>
       </c>
-      <c r="G118" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H118" s="4">
+      <c r="G118" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H118" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6134,11 +6137,11 @@
       <c r="F119" s="3">
         <v>0.12</v>
       </c>
-      <c r="G119" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H119" s="4">
+      <c r="G119" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H119" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6180,11 +6183,11 @@
       <c r="F120" s="3">
         <v>0.12</v>
       </c>
-      <c r="G120" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H120" s="4">
+      <c r="G120" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H120" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6226,11 +6229,11 @@
       <c r="F121" s="3">
         <v>0.12</v>
       </c>
-      <c r="G121" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H121" s="4">
+      <c r="G121" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H121" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6272,11 +6275,11 @@
       <c r="F122" s="3">
         <v>0.12</v>
       </c>
-      <c r="G122" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H122" s="4">
+      <c r="G122" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H122" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6318,11 +6321,11 @@
       <c r="F123" s="3">
         <v>0.12</v>
       </c>
-      <c r="G123" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H123" s="4">
+      <c r="G123" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H123" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6364,11 +6367,11 @@
       <c r="F124" s="3">
         <v>0.12</v>
       </c>
-      <c r="G124" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H124" s="4">
+      <c r="G124" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H124" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6410,11 +6413,11 @@
       <c r="F125" s="3">
         <v>0.12</v>
       </c>
-      <c r="G125" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H125" s="4">
+      <c r="G125" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H125" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6456,11 +6459,11 @@
       <c r="F126" s="3">
         <v>0.12</v>
       </c>
-      <c r="G126" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H126" s="4">
+      <c r="G126" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H126" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
@@ -6502,11 +6505,11 @@
       <c r="F127" s="3">
         <v>0.12</v>
       </c>
-      <c r="G127" s="7">
-        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))</f>
-        <v>1.452</v>
-      </c>
-      <c r="H127" s="4">
+      <c r="G127" s="8">
+        <f>1.65 * (1-(DADOS[[#This Row],[ICMS]]))/100</f>
+        <v>1.452E-2</v>
+      </c>
+      <c r="H127" s="7">
         <f>7.6% * (1-(DADOS[[#This Row],[ICMS]]))</f>
         <v>6.6879999999999995E-2</v>
       </c>
